--- a/biology/Médecine/Réseau_veineux_dorsal_de_la_main/Réseau_veineux_dorsal_de_la_main.xlsx
+++ b/biology/Médecine/Réseau_veineux_dorsal_de_la_main/Réseau_veineux_dorsal_de_la_main.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_veineux_dorsal_de_la_main</t>
+          <t>Réseau_veineux_dorsal_de_la_main</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réseau veineux dorsal de la main est un réseau veineux superficiel situé sur le dos de la main.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9seau_veineux_dorsal_de_la_main</t>
+          <t>Réseau_veineux_dorsal_de_la_main</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réseau veineux dorsal de la main est constitué d'une première arcade transversale distale qui unit les veines dorsales digitales de la main. Elle est située au niveau de la face dorsale des phalanges proximales de la main.
 De cette première arcade, naissent les veines métacarpiennes dorsales qui remontent la face dorsale et s'anastomosent pour former une deuxième arcade au niveau des bases des métacarpiens.
